--- a/raw_data/Applicances.xlsx
+++ b/raw_data/Applicances.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
-    <t xml:space="preserve">Applicance</t>
+    <t xml:space="preserve">Appliance</t>
   </si>
   <si>
     <t xml:space="preserve">Average_watts (in Wh)</t>
@@ -516,14 +516,14 @@
   <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A120" activeCellId="0" sqref="A120"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
